--- a/tablaPrecarga.xlsx
+++ b/tablaPrecarga.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5dcd86d9bf03d87f/ORT/Semestre2/P2/Obligatorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{382E993F-35F1-4BF2-A315-7D97484DF210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{382E993F-35F1-4BF2-A315-7D97484DF210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5867C0ED-1F40-4F0E-A93B-77E436F4A287}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{1C8C28BD-6758-41E3-A33B-63D4B3187785}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Partidos" sheetId="1" r:id="rId1"/>
+    <sheet name="Incidencias" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="40">
   <si>
     <t>Grupo</t>
   </si>
@@ -67,16 +67,120 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>2022, 11, 24</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>unP2_G</t>
+  </si>
+  <si>
+    <t>Suiza</t>
+  </si>
+  <si>
+    <t>Camerún</t>
+  </si>
+  <si>
+    <t>unP3_G</t>
+  </si>
+  <si>
+    <t>2022, 11, 28</t>
+  </si>
+  <si>
+    <t>unP4_G</t>
+  </si>
+  <si>
+    <t>unP5_G</t>
+  </si>
+  <si>
+    <t>2022, 12, 2</t>
+  </si>
+  <si>
+    <t>unP6_G</t>
+  </si>
+  <si>
+    <t>unP1_H</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>unP2_H</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Corea del Sur</t>
+  </si>
+  <si>
+    <t>unP3_H</t>
+  </si>
+  <si>
+    <t>unP4_H</t>
+  </si>
+  <si>
+    <t>unP5_H</t>
+  </si>
+  <si>
+    <t>unP6_H</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>unPE_1</t>
+  </si>
+  <si>
+    <t>Eliminatorias</t>
+  </si>
+  <si>
+    <t>2022, 12, 6</t>
+  </si>
+  <si>
+    <t>unPE_2</t>
+  </si>
+  <si>
+    <t>Gol</t>
+  </si>
+  <si>
+    <t>Amarilla</t>
+  </si>
+  <si>
+    <t>Roja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,12 +202,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,74 +546,898 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E19F2D-0F20-4CF4-AA98-7A54A0E88E55}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.9453125" style="2"/>
+    <col min="2" max="2" width="13.1015625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.9453125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82A7F21-D37C-497C-B3E5-421AE6865B1A}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="10.9453125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3">
+        <v>87</v>
+      </c>
+      <c r="D4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5">
+        <v>80</v>
+      </c>
+      <c r="D10" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4">
+        <v>60</v>
+      </c>
+      <c r="D11" s="4">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5">
+        <v>80</v>
+      </c>
+      <c r="D13" s="5">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2">
+        <v>50</v>
+      </c>
+      <c r="D15" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3">
+        <v>85</v>
+      </c>
+      <c r="D17" s="3">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2">
+        <v>87</v>
+      </c>
+      <c r="D21" s="2">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3">
+        <v>49</v>
+      </c>
+      <c r="D25" s="3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2">
+        <v>88</v>
+      </c>
+      <c r="D27" s="2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3">
+        <v>53</v>
+      </c>
+      <c r="D28" s="3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="3">
+        <v>53</v>
+      </c>
+      <c r="D31" s="3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2">
+        <v>88</v>
+      </c>
+      <c r="D33" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="3">
+        <v>34</v>
+      </c>
+      <c r="D34" s="3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="2">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2">
+        <v>67</v>
+      </c>
+      <c r="D36" s="2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3">
+        <v>80</v>
+      </c>
+      <c r="D37" s="3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2">
+        <v>60</v>
+      </c>
+      <c r="D38" s="2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2">
+        <v>75</v>
+      </c>
+      <c r="D39" s="2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3">
+        <v>80</v>
+      </c>
+      <c r="D40" s="3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2">
+        <v>30</v>
+      </c>
+      <c r="D41" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="2">
+        <v>64</v>
+      </c>
+      <c r="D42" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2">
+        <v>70</v>
+      </c>
+      <c r="D43" s="2">
+        <v>601</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tablaPrecarga.xlsx
+++ b/tablaPrecarga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5dcd86d9bf03d87f/ORT/Semestre2/P2/Obligatorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{382E993F-35F1-4BF2-A315-7D97484DF210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5867C0ED-1F40-4F0E-A93B-77E436F4A287}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="8_{382E993F-35F1-4BF2-A315-7D97484DF210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5532811D-DD82-4681-A143-A680909C4141}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{1C8C28BD-6758-41E3-A33B-63D4B3187785}"/>
   </bookViews>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,6 +230,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -826,7 +829,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -849,30 +852,30 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6">
         <v>30</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6">
         <v>50</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>130</v>
       </c>
     </row>
@@ -892,422 +895,422 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4">
-        <v>289</v>
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2">
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4">
-        <v>304</v>
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6">
+        <v>87</v>
+      </c>
+      <c r="D6" s="6">
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5">
-        <v>70</v>
-      </c>
-      <c r="D7" s="5">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C8" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="4">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4">
-        <v>105</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="5">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D10" s="5">
-        <v>111</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4">
-        <v>60</v>
-      </c>
-      <c r="D11" s="4">
-        <v>716</v>
+      <c r="C11" s="6">
+        <v>89</v>
+      </c>
+      <c r="D11" s="6">
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4">
-        <v>75</v>
-      </c>
-      <c r="D12" s="4">
-        <v>732</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5">
-        <v>80</v>
-      </c>
-      <c r="D13" s="5">
-        <v>728</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3">
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="2">
-        <v>60</v>
-      </c>
-      <c r="D16" s="2">
-        <v>129</v>
+      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5">
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="3">
-        <v>85</v>
-      </c>
-      <c r="D17" s="3">
-        <v>735</v>
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="6">
+        <v>88</v>
+      </c>
+      <c r="D17" s="6">
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2">
-        <v>238</v>
+      <c r="C18" s="6">
+        <v>53</v>
+      </c>
+      <c r="D18" s="6">
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3">
-        <v>307</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="2">
-        <v>50</v>
-      </c>
-      <c r="D20" s="2">
-        <v>542</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4">
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="2">
-        <v>87</v>
-      </c>
-      <c r="D21" s="2">
-        <v>614</v>
+      <c r="A21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4">
+        <v>80</v>
+      </c>
+      <c r="D21" s="4">
+        <v>728</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="3">
-        <v>30</v>
-      </c>
-      <c r="D22" s="3">
-        <v>617</v>
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5">
+        <v>75</v>
+      </c>
+      <c r="D22" s="5">
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2">
-        <v>494</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3">
-        <v>497</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>598</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="2">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2">
-        <v>490</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="3">
+        <v>60</v>
+      </c>
+      <c r="D28" s="3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="6">
+        <v>85</v>
+      </c>
+      <c r="D29" s="6">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="3">
-        <v>53</v>
-      </c>
-      <c r="D28" s="3">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="2">
-        <v>20</v>
-      </c>
-      <c r="D29" s="2">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="2">
-        <v>40</v>
-      </c>
-      <c r="D30" s="2">
-        <v>396</v>
+      <c r="C30" s="6">
+        <v>23</v>
+      </c>
+      <c r="D30" s="6">
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D31" s="3">
-        <v>396</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="2">
-        <v>23</v>
-      </c>
-      <c r="D32" s="2">
-        <v>375</v>
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6">
+        <v>34</v>
+      </c>
+      <c r="D32" s="6">
+        <v>611</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="2">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
-        <v>378</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D34" s="3">
-        <v>611</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1353,30 +1356,30 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="2">
-        <v>60</v>
-      </c>
-      <c r="D38" s="2">
-        <v>506</v>
+      <c r="B38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="6">
+        <v>75</v>
+      </c>
+      <c r="D38" s="6">
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="2">
-        <v>75</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="B39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="6">
+        <v>80</v>
+      </c>
+      <c r="D39" s="6">
         <v>501</v>
       </c>
     </row>
@@ -1385,13 +1388,13 @@
         <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D40" s="3">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1402,10 +1405,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="2">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D41" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1416,10 +1419,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="2">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1437,6 +1440,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
+    <sortCondition ref="A2:A43"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
